--- a/data/CS1/Market Data/CS1_market_data_base.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_base.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F5AD1-2B17-4068-BCC1-694873EBC1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD186114-6A94-4ED4-A00F-D21B889F8A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Energy, Winter" sheetId="2" r:id="rId2"/>
-    <sheet name="Secondary Reserve, Winter" sheetId="3" r:id="rId3"/>
-    <sheet name="Tertiary Reserve Up, Winter" sheetId="4" r:id="rId4"/>
-    <sheet name="Tertiary Reserve Down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Energy, Summer" sheetId="6" r:id="rId6"/>
-    <sheet name="Secondary Reserve, Summer" sheetId="7" r:id="rId7"/>
-    <sheet name="Tertiary Reserve Up, Summer" sheetId="8" r:id="rId8"/>
-    <sheet name="Tertiary Reserve Down, Summer" sheetId="9" r:id="rId9"/>
+    <sheet name="Flexibility, Winter" sheetId="10" r:id="rId3"/>
+    <sheet name="Secondary Reserve, Winter" sheetId="3" r:id="rId4"/>
+    <sheet name="Tertiary Reserve Up, Winter" sheetId="4" r:id="rId5"/>
+    <sheet name="Tertiary Reserve Down, Winter" sheetId="5" r:id="rId6"/>
+    <sheet name="Energy, Summer" sheetId="6" r:id="rId7"/>
+    <sheet name="Flexibility, Summer" sheetId="11" r:id="rId8"/>
+    <sheet name="Secondary Reserve, Summer" sheetId="7" r:id="rId9"/>
+    <sheet name="Tertiary Reserve Up, Summer" sheetId="8" r:id="rId10"/>
+    <sheet name="Tertiary Reserve Down, Summer" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Energy, Winter'!$A$1:$Y$6</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Scenario</t>
   </si>
@@ -1606,12 +1608,709 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A463E26D-6A8A-4B66-9A29-8928FA1FD067}">
+  <dimension ref="A1:Y5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42.153333333333336</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42.486666666666672</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42.486666666666672</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51.303333333333335</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44.726666666666667</v>
+      </c>
+      <c r="G2" s="2">
+        <v>53.636666666666677</v>
+      </c>
+      <c r="H2" s="2">
+        <v>52.483333333333327</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40.266666666666673</v>
+      </c>
+      <c r="J2" s="2">
+        <v>40.466666666666669</v>
+      </c>
+      <c r="K2" s="2">
+        <v>59.133333333333333</v>
+      </c>
+      <c r="L2" s="2">
+        <v>40.833333333333336</v>
+      </c>
+      <c r="M2" s="2">
+        <v>40.833333333333336</v>
+      </c>
+      <c r="N2" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44.09</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="R2" s="2">
+        <v>40.800000000000004</v>
+      </c>
+      <c r="S2" s="2">
+        <v>41.06666666666667</v>
+      </c>
+      <c r="T2" s="2">
+        <v>40.866666666666667</v>
+      </c>
+      <c r="U2" s="2">
+        <v>44.09</v>
+      </c>
+      <c r="V2" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="W2" s="2">
+        <v>45.860000000000007</v>
+      </c>
+      <c r="X2" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36.216666666666669</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36.88333333333334</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36.88333333333334</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45.351666666666667</v>
+      </c>
+      <c r="F3" s="2">
+        <v>40.36333333333333</v>
+      </c>
+      <c r="G3" s="2">
+        <v>61.338333333333338</v>
+      </c>
+      <c r="H3" s="2">
+        <v>60.76166666666667</v>
+      </c>
+      <c r="I3" s="2">
+        <v>39.833333333333336</v>
+      </c>
+      <c r="J3" s="2">
+        <v>40.233333333333334</v>
+      </c>
+      <c r="K3" s="2">
+        <v>49.266666666666666</v>
+      </c>
+      <c r="L3" s="2">
+        <v>40.116666666666667</v>
+      </c>
+      <c r="M3" s="2">
+        <v>40.116666666666667</v>
+      </c>
+      <c r="N3" s="2">
+        <v>49.45</v>
+      </c>
+      <c r="O3" s="2">
+        <v>49.45</v>
+      </c>
+      <c r="P3" s="2">
+        <v>41.745000000000005</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>40.400000000000006</v>
+      </c>
+      <c r="S3" s="2">
+        <v>40.63333333333334</v>
+      </c>
+      <c r="T3" s="2">
+        <v>40.533333333333331</v>
+      </c>
+      <c r="U3" s="2">
+        <v>41.745000000000005</v>
+      </c>
+      <c r="V3" s="2">
+        <v>40</v>
+      </c>
+      <c r="W3" s="2">
+        <v>42.63</v>
+      </c>
+      <c r="X3" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30.28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>31.28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31.28</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="H4" s="2">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="I4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="N4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>40</v>
+      </c>
+      <c r="S4" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="T4" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="U4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="V4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="X4" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2593E2F5-41B7-446A-8A1D-5F81A289B505}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>24.09</v>
+      </c>
+      <c r="C2" s="2">
+        <v>24.09</v>
+      </c>
+      <c r="D2" s="2">
+        <v>24.09</v>
+      </c>
+      <c r="E2" s="2">
+        <v>24.09</v>
+      </c>
+      <c r="F2" s="2">
+        <v>29.04</v>
+      </c>
+      <c r="G2" s="2">
+        <v>29.03</v>
+      </c>
+      <c r="H2" s="2">
+        <v>29.05</v>
+      </c>
+      <c r="I2" s="2">
+        <v>29.04</v>
+      </c>
+      <c r="J2" s="2">
+        <v>29.04</v>
+      </c>
+      <c r="K2" s="2">
+        <v>29.05</v>
+      </c>
+      <c r="L2" s="2">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>29.03</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29.03</v>
+      </c>
+      <c r="O2" s="2">
+        <v>29.03</v>
+      </c>
+      <c r="P2" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="R2" s="2">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="T2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="U2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="V2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="W2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="X2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>AVERAGE(B2,B4)</f>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:Y3" si="0">AVERAGE(C2,C4)</f>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>31.63</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>23.537500000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>29.28</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>26.9175</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>26.9175</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.950000000000003</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>33.162500000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.935000000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="0"/>
+        <v>29.265000000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>29.265000000000001</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="0"/>
+        <v>31.4925</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.92</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="0"/>
+        <v>33.162500000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.92</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.92</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.92</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="0"/>
+        <v>30.92</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="0"/>
+        <v>28.305</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="0"/>
+        <v>27.532499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>31.744999999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <v>31.744999999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31.744999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31.744999999999997</v>
+      </c>
+      <c r="F4" s="2">
+        <v>34.22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18.045000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>29.509999999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>24.795000000000002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>24.795000000000002</v>
+      </c>
+      <c r="K4" s="2">
+        <v>32.85</v>
+      </c>
+      <c r="L4" s="2">
+        <v>34.325000000000003</v>
+      </c>
+      <c r="M4" s="2">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="N4" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>30.984999999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="R4" s="2">
+        <v>34.325000000000003</v>
+      </c>
+      <c r="S4" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="T4" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="U4" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="V4" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="W4" s="2">
+        <v>29.490000000000002</v>
+      </c>
+      <c r="X4" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>27.085000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA05D27-2923-4356-8892-D5CC7369F4B4}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,6 +2732,401 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B375BFA-B0F4-4833-801B-5BC43AE8748E}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'Energy, Winter'!B2*1.2</f>
+        <v>52.451999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'Energy, Winter'!C2*1.2</f>
+        <v>48.941999999999993</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'Energy, Winter'!D2*1.2</f>
+        <v>46.862999999999992</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'Energy, Winter'!E2*1.2</f>
+        <v>43.947000000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'Energy, Winter'!F2*1.2</f>
+        <v>45.258000000000003</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'Energy, Winter'!G2*1.2</f>
+        <v>48.894000000000005</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'Energy, Winter'!H2*1.2</f>
+        <v>59.153999999999996</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'Energy, Winter'!I2*1.2</f>
+        <v>61.908000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'Energy, Winter'!J2*1.2</f>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'Energy, Winter'!K2*1.2</f>
+        <v>64.60499999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'Energy, Winter'!L2*1.2</f>
+        <v>63.36</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'Energy, Winter'!M2*1.2</f>
+        <v>63.050999999999995</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'Energy, Winter'!N2*1.2</f>
+        <v>60.608999999999988</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'Energy, Winter'!O2*1.2</f>
+        <v>59.753999999999998</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'Energy, Winter'!P2*1.2</f>
+        <v>58.581000000000003</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'Energy, Winter'!Q2*1.2</f>
+        <v>58.697999999999993</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'Energy, Winter'!R2*1.2</f>
+        <v>59.603999999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'Energy, Winter'!S2*1.2</f>
+        <v>62.55</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'Energy, Winter'!T2*1.2</f>
+        <v>65.543999999999997</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'Energy, Winter'!U2*1.2</f>
+        <v>66.048000000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'Energy, Winter'!V2*1.2</f>
+        <v>64.523999999999987</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'Energy, Winter'!W2*1.2</f>
+        <v>60.470999999999997</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'Energy, Winter'!X2*1.2</f>
+        <v>54.579000000000001</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'Energy, Winter'!Y2*1.2</f>
+        <v>51.227999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'Energy, Winter'!B3*1.2</f>
+        <v>48.984000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'Energy, Winter'!C3*1.2</f>
+        <v>46.235999999999997</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'Energy, Winter'!D3*1.2</f>
+        <v>43.241999999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'Energy, Winter'!E3*1.2</f>
+        <v>41.309999999999995</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'Energy, Winter'!F3*1.2</f>
+        <v>43.608000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'Energy, Winter'!G3*1.2</f>
+        <v>45.936</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'Energy, Winter'!H3*1.2</f>
+        <v>53.04</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'Energy, Winter'!I3*1.2</f>
+        <v>55.404000000000003</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'Energy, Winter'!J3*1.2</f>
+        <v>58.176000000000002</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'Energy, Winter'!K3*1.2</f>
+        <v>58.565999999999995</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'Energy, Winter'!L3*1.2</f>
+        <v>56.88</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'Energy, Winter'!M3*1.2</f>
+        <v>55.709999999999994</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'Energy, Winter'!N3*1.2</f>
+        <v>54.005999999999993</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'Energy, Winter'!O3*1.2</f>
+        <v>53.436</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'Energy, Winter'!P3*1.2</f>
+        <v>51.054000000000002</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'Energy, Winter'!Q3*1.2</f>
+        <v>50.652000000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'Energy, Winter'!R3*1.2</f>
+        <v>51.695999999999998</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'Energy, Winter'!S3*1.2</f>
+        <v>57</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'Energy, Winter'!T3*1.2</f>
+        <v>59.676000000000002</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'Energy, Winter'!U3*1.2</f>
+        <v>60.612000000000002</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'Energy, Winter'!V3*1.2</f>
+        <v>60.947999999999993</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'Energy, Winter'!W3*1.2</f>
+        <v>58.24199999999999</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'Energy, Winter'!X3*1.2</f>
+        <v>52.745999999999995</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'Energy, Winter'!Y3*1.2</f>
+        <v>50.052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'Energy, Winter'!B4*1.2</f>
+        <v>55.92</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'Energy, Winter'!C4*1.2</f>
+        <v>51.647999999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'Energy, Winter'!D4*1.2</f>
+        <v>50.484000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'Energy, Winter'!E4*1.2</f>
+        <v>46.583999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'Energy, Winter'!F4*1.2</f>
+        <v>46.908000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'Energy, Winter'!G4*1.2</f>
+        <v>51.851999999999997</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'Energy, Winter'!H4*1.2</f>
+        <v>65.268000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'Energy, Winter'!I4*1.2</f>
+        <v>68.411999999999992</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'Energy, Winter'!J4*1.2</f>
+        <v>72.024000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'Energy, Winter'!K4*1.2</f>
+        <v>70.643999999999991</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'Energy, Winter'!L4*1.2</f>
+        <v>69.84</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'Energy, Winter'!M4*1.2</f>
+        <v>70.391999999999996</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'Energy, Winter'!N4*1.2</f>
+        <v>67.211999999999989</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'Energy, Winter'!O4*1.2</f>
+        <v>66.072000000000003</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'Energy, Winter'!P4*1.2</f>
+        <v>66.108000000000004</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'Energy, Winter'!Q4*1.2</f>
+        <v>66.744</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'Energy, Winter'!R4*1.2</f>
+        <v>67.512</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'Energy, Winter'!S4*1.2</f>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'Energy, Winter'!T4*1.2</f>
+        <v>71.411999999999992</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'Energy, Winter'!U4*1.2</f>
+        <v>71.483999999999995</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'Energy, Winter'!V4*1.2</f>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'Energy, Winter'!W4*1.2</f>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'Energy, Winter'!X4*1.2</f>
+        <v>56.411999999999999</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'Energy, Winter'!Y4*1.2</f>
+        <v>52.404000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F2832E-D631-4518-B3FA-D6C6FF68485B}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
@@ -2356,7 +3450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6341CBF-75B0-4881-BC67-CF5B8BBF5F6C}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
@@ -2679,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D159CD96-79DD-4FF6-91B4-4DFEA1FC4F13}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
@@ -3002,7 +4096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8148E-B092-4250-B42C-B4D8265B477C}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
@@ -3326,7 +4420,403 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1587CCD7-3E6A-436D-B3BD-ECCE65597EC5}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'Energy, Summer'!B2*1.2</f>
+        <v>44.724000000000004</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'Energy, Summer'!C2*1.2</f>
+        <v>40.811999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'Energy, Summer'!D2*1.2</f>
+        <v>39.083999999999996</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'Energy, Summer'!E2*1.2</f>
+        <v>38.375999999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'Energy, Summer'!F2*1.2</f>
+        <v>38.556000000000004</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'Energy, Summer'!G2*1.2</f>
+        <v>43.643999999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'Energy, Summer'!H2*1.2</f>
+        <v>45.491999999999997</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'Energy, Summer'!I2*1.2</f>
+        <v>45.491999999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'Energy, Summer'!J2*1.2</f>
+        <v>47.808</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'Energy, Summer'!K2*1.2</f>
+        <v>47.927999999999997</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'Energy, Summer'!L2*1.2</f>
+        <v>47.808</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'Energy, Summer'!M2*1.2</f>
+        <v>48.011999999999993</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'Energy, Summer'!N2*1.2</f>
+        <v>47.327999999999996</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'Energy, Summer'!O2*1.2</f>
+        <v>47.027999999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'Energy, Summer'!P2*1.2</f>
+        <v>46.043999999999997</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'Energy, Summer'!Q2*1.2</f>
+        <v>44.627999999999993</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'Energy, Summer'!R2*1.2</f>
+        <v>41.975999999999992</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'Energy, Summer'!S2*1.2</f>
+        <v>44.843999999999994</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'Energy, Summer'!T2*1.2</f>
+        <v>46.559999999999995</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'Energy, Summer'!U2*1.2</f>
+        <v>47.879999999999995</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'Energy, Summer'!V2*1.2</f>
+        <v>46.847999999999999</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'Energy, Summer'!W2*1.2</f>
+        <v>47.808</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'Energy, Summer'!X2*1.2</f>
+        <v>47.711999999999996</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'Energy, Summer'!Y2*1.2</f>
+        <v>45.768000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'Energy, Summer'!B3*1.2</f>
+        <v>47.616</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'Energy, Summer'!C3*1.2</f>
+        <v>42</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'Energy, Summer'!D3*1.2</f>
+        <v>45.84</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'Energy, Summer'!E3*1.2</f>
+        <v>44.279999999999994</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'Energy, Summer'!F3*1.2</f>
+        <v>45.131999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'Energy, Summer'!G3*1.2</f>
+        <v>45.84</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'Energy, Summer'!H3*1.2</f>
+        <v>44.652000000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'Energy, Summer'!I3*1.2</f>
+        <v>48.216000000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'Energy, Summer'!J3*1.2</f>
+        <v>51.408000000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'Energy, Summer'!K3*1.2</f>
+        <v>51.636000000000003</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'Energy, Summer'!L3*1.2</f>
+        <v>52.14</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'Energy, Summer'!M3*1.2</f>
+        <v>53.124000000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'Energy, Summer'!N3*1.2</f>
+        <v>53.963999999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'Energy, Summer'!O3*1.2</f>
+        <v>55.368000000000002</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'Energy, Summer'!P3*1.2</f>
+        <v>53.268000000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'Energy, Summer'!Q3*1.2</f>
+        <v>51.611999999999995</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'Energy, Summer'!R3*1.2</f>
+        <v>51.431999999999995</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'Energy, Summer'!S3*1.2</f>
+        <v>52.475999999999992</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'Energy, Summer'!T3*1.2</f>
+        <v>52.763999999999996</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'Energy, Summer'!U3*1.2</f>
+        <v>53.879999999999995</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'Energy, Summer'!V3*1.2</f>
+        <v>54.54</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'Energy, Summer'!W3*1.2</f>
+        <v>55.379999999999995</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'Energy, Summer'!X3*1.2</f>
+        <v>53.963999999999999</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'Energy, Summer'!Y3*1.2</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'Energy, Summer'!B4*1.2</f>
+        <v>40.067999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'Energy, Summer'!C4*1.2</f>
+        <v>36.984000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'Energy, Summer'!D4*1.2</f>
+        <v>34.667999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'Energy, Summer'!E4*1.2</f>
+        <v>34.116</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'Energy, Summer'!F4*1.2</f>
+        <v>35.292000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'Energy, Summer'!G4*1.2</f>
+        <v>41.268000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'Energy, Summer'!H4*1.2</f>
+        <v>54.288000000000004</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'Energy, Summer'!I4*1.2</f>
+        <v>51.503999999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'Energy, Summer'!J4*1.2</f>
+        <v>53.856000000000002</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'Energy, Summer'!K4*1.2</f>
+        <v>53.16</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'Energy, Summer'!L4*1.2</f>
+        <v>49.271999999999998</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'Energy, Summer'!M4*1.2</f>
+        <v>47.879999999999995</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'Energy, Summer'!N4*1.2</f>
+        <v>53.015999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'Energy, Summer'!O4*1.2</f>
+        <v>54.216000000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'Energy, Summer'!P4*1.2</f>
+        <v>53.856000000000002</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'Energy, Summer'!Q4*1.2</f>
+        <v>53.22</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'Energy, Summer'!R4*1.2</f>
+        <v>53.22</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'Energy, Summer'!S4*1.2</f>
+        <v>53.856000000000002</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'Energy, Summer'!T4*1.2</f>
+        <v>55.415999999999997</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'Energy, Summer'!U4*1.2</f>
+        <v>57.456000000000003</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'Energy, Summer'!V4*1.2</f>
+        <v>61.415999999999997</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'Energy, Summer'!W4*1.2</f>
+        <v>66.827999999999989</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'Energy, Summer'!X4*1.2</f>
+        <v>60.923999999999999</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'Energy, Summer'!Y4*1.2</f>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514FB8F9-B431-4FC3-A01F-C31ABBD1F26D}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
@@ -3648,701 +5138,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A463E26D-6A8A-4B66-9A29-8928FA1FD067}">
-  <dimension ref="A1:Y5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>42.153333333333336</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42.486666666666672</v>
-      </c>
-      <c r="D2" s="2">
-        <v>42.486666666666672</v>
-      </c>
-      <c r="E2" s="2">
-        <v>51.303333333333335</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44.726666666666667</v>
-      </c>
-      <c r="G2" s="2">
-        <v>53.636666666666677</v>
-      </c>
-      <c r="H2" s="2">
-        <v>52.483333333333327</v>
-      </c>
-      <c r="I2" s="2">
-        <v>40.266666666666673</v>
-      </c>
-      <c r="J2" s="2">
-        <v>40.466666666666669</v>
-      </c>
-      <c r="K2" s="2">
-        <v>59.133333333333333</v>
-      </c>
-      <c r="L2" s="2">
-        <v>40.833333333333336</v>
-      </c>
-      <c r="M2" s="2">
-        <v>40.833333333333336</v>
-      </c>
-      <c r="N2" s="2">
-        <v>59.5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>59.5</v>
-      </c>
-      <c r="P2" s="2">
-        <v>44.09</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>40.800000000000004</v>
-      </c>
-      <c r="R2" s="2">
-        <v>40.800000000000004</v>
-      </c>
-      <c r="S2" s="2">
-        <v>41.06666666666667</v>
-      </c>
-      <c r="T2" s="2">
-        <v>40.866666666666667</v>
-      </c>
-      <c r="U2" s="2">
-        <v>44.09</v>
-      </c>
-      <c r="V2" s="2">
-        <v>40.6</v>
-      </c>
-      <c r="W2" s="2">
-        <v>45.860000000000007</v>
-      </c>
-      <c r="X2" s="2">
-        <v>37.6</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>36.216666666666669</v>
-      </c>
-      <c r="C3" s="2">
-        <v>36.88333333333334</v>
-      </c>
-      <c r="D3" s="2">
-        <v>36.88333333333334</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45.351666666666667</v>
-      </c>
-      <c r="F3" s="2">
-        <v>40.36333333333333</v>
-      </c>
-      <c r="G3" s="2">
-        <v>61.338333333333338</v>
-      </c>
-      <c r="H3" s="2">
-        <v>60.76166666666667</v>
-      </c>
-      <c r="I3" s="2">
-        <v>39.833333333333336</v>
-      </c>
-      <c r="J3" s="2">
-        <v>40.233333333333334</v>
-      </c>
-      <c r="K3" s="2">
-        <v>49.266666666666666</v>
-      </c>
-      <c r="L3" s="2">
-        <v>40.116666666666667</v>
-      </c>
-      <c r="M3" s="2">
-        <v>40.116666666666667</v>
-      </c>
-      <c r="N3" s="2">
-        <v>49.45</v>
-      </c>
-      <c r="O3" s="2">
-        <v>49.45</v>
-      </c>
-      <c r="P3" s="2">
-        <v>41.745000000000005</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>40.1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>40.400000000000006</v>
-      </c>
-      <c r="S3" s="2">
-        <v>40.63333333333334</v>
-      </c>
-      <c r="T3" s="2">
-        <v>40.533333333333331</v>
-      </c>
-      <c r="U3" s="2">
-        <v>41.745000000000005</v>
-      </c>
-      <c r="V3" s="2">
-        <v>40</v>
-      </c>
-      <c r="W3" s="2">
-        <v>42.63</v>
-      </c>
-      <c r="X3" s="2">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>30.28</v>
-      </c>
-      <c r="C4" s="2">
-        <v>31.28</v>
-      </c>
-      <c r="D4" s="2">
-        <v>31.28</v>
-      </c>
-      <c r="E4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2">
-        <v>69.040000000000006</v>
-      </c>
-      <c r="H4" s="2">
-        <v>69.040000000000006</v>
-      </c>
-      <c r="I4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="J4" s="2">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="L4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="M4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="N4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="O4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="P4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="R4" s="2">
-        <v>40</v>
-      </c>
-      <c r="S4" s="2">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="U4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="V4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="W4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="X4" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2593E2F5-41B7-446A-8A1D-5F81A289B505}">
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>24.09</v>
-      </c>
-      <c r="C2" s="2">
-        <v>24.09</v>
-      </c>
-      <c r="D2" s="2">
-        <v>24.09</v>
-      </c>
-      <c r="E2" s="2">
-        <v>24.09</v>
-      </c>
-      <c r="F2" s="2">
-        <v>29.04</v>
-      </c>
-      <c r="G2" s="2">
-        <v>29.03</v>
-      </c>
-      <c r="H2" s="2">
-        <v>29.05</v>
-      </c>
-      <c r="I2" s="2">
-        <v>29.04</v>
-      </c>
-      <c r="J2" s="2">
-        <v>29.04</v>
-      </c>
-      <c r="K2" s="2">
-        <v>29.05</v>
-      </c>
-      <c r="L2" s="2">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2">
-        <v>29.03</v>
-      </c>
-      <c r="N2" s="2">
-        <v>29.03</v>
-      </c>
-      <c r="O2" s="2">
-        <v>29.03</v>
-      </c>
-      <c r="P2" s="2">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="R2" s="2">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="T2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="U2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="V2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="W2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="X2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>27.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>AVERAGE(B2,B4)</f>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:Y3" si="0">AVERAGE(C2,C4)</f>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.63</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>23.537500000000001</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" si="0"/>
-        <v>29.28</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>26.9175</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>26.9175</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.950000000000003</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>33.162500000000001</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.935000000000002</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>29.265000000000001</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" si="0"/>
-        <v>29.265000000000001</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>31.4925</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.92</v>
-      </c>
-      <c r="R3" s="2">
-        <f t="shared" si="0"/>
-        <v>33.162500000000001</v>
-      </c>
-      <c r="S3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.92</v>
-      </c>
-      <c r="T3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.92</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.92</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="0"/>
-        <v>30.92</v>
-      </c>
-      <c r="W3" s="2">
-        <f t="shared" si="0"/>
-        <v>29.25</v>
-      </c>
-      <c r="X3" s="2">
-        <f t="shared" si="0"/>
-        <v>28.305</v>
-      </c>
-      <c r="Y3" s="2">
-        <f t="shared" si="0"/>
-        <v>27.532499999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>31.744999999999997</v>
-      </c>
-      <c r="C4" s="2">
-        <v>31.744999999999997</v>
-      </c>
-      <c r="D4" s="2">
-        <v>31.744999999999997</v>
-      </c>
-      <c r="E4" s="2">
-        <v>31.744999999999997</v>
-      </c>
-      <c r="F4" s="2">
-        <v>34.22</v>
-      </c>
-      <c r="G4" s="2">
-        <v>18.045000000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <v>29.509999999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <v>24.795000000000002</v>
-      </c>
-      <c r="J4" s="2">
-        <v>24.795000000000002</v>
-      </c>
-      <c r="K4" s="2">
-        <v>32.85</v>
-      </c>
-      <c r="L4" s="2">
-        <v>34.325000000000003</v>
-      </c>
-      <c r="M4" s="2">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="N4" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="P4" s="2">
-        <v>30.984999999999999</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>32.83</v>
-      </c>
-      <c r="R4" s="2">
-        <v>34.325000000000003</v>
-      </c>
-      <c r="S4" s="2">
-        <v>32.83</v>
-      </c>
-      <c r="T4" s="2">
-        <v>32.83</v>
-      </c>
-      <c r="U4" s="2">
-        <v>32.83</v>
-      </c>
-      <c r="V4" s="2">
-        <v>32.83</v>
-      </c>
-      <c r="W4" s="2">
-        <v>29.490000000000002</v>
-      </c>
-      <c r="X4" s="2">
-        <v>27.6</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>27.085000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/CS1/Market Data/CS1_market_data_base.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD186114-6A94-4ED4-A00F-D21B889F8A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A4702A-425F-492E-B0CB-96C033333163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23790" yWindow="3360" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Scenario</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Downward Tertiary Reserve</t>
+  </si>
+  <si>
+    <t>Initial Year</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
   </si>
 </sst>
 </file>
@@ -127,1163 +133,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tertiary Reserve Up, Summer'!$B$2:$Y$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>42.153333333333336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.486666666666672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.486666666666672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.303333333333335</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.726666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.636666666666677</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52.483333333333327</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.266666666666673</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59.133333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.833333333333336</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40.833333333333336</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41.06666666666667</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44.09</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45.860000000000007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9AB-4535-9FB5-624649CB35EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tertiary Reserve Up, Summer'!$B$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>36.216666666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.88333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.88333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.351666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.36333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61.338333333333338</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.76166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.833333333333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.233333333333334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.116666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40.116666666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41.745000000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40.63333333333334</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.533333333333331</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.745000000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42.63</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B9AB-4535-9FB5-624649CB35EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tertiary Reserve Up, Summer'!$B$4:$Y$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>30.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B9AB-4535-9FB5-624649CB35EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1287764975"/>
-        <c:axId val="1287765455"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1287764975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1287765455"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1287765455"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1287764975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158EE30C-465A-60F2-21DF-83063B3652B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1549,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,31 +411,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.02</v>
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>0.02</v>
@@ -1594,14 +435,38 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,7 +819,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1963,7 +827,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,7 +1600,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,99 +1687,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'Energy, Winter'!B2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.2</f>
         <v>52.451999999999998</v>
       </c>
       <c r="C2" s="2">
-        <f>'Energy, Winter'!C2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.2</f>
         <v>48.941999999999993</v>
       </c>
       <c r="D2" s="2">
-        <f>'Energy, Winter'!D2*1.2</f>
-        <v>46.862999999999992</v>
+        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.2</f>
+        <v>46.863</v>
       </c>
       <c r="E2" s="2">
-        <f>'Energy, Winter'!E2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.2</f>
         <v>43.947000000000003</v>
       </c>
       <c r="F2" s="2">
-        <f>'Energy, Winter'!F2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.2</f>
         <v>45.258000000000003</v>
       </c>
       <c r="G2" s="2">
-        <f>'Energy, Winter'!G2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.2</f>
         <v>48.894000000000005</v>
       </c>
       <c r="H2" s="2">
-        <f>'Energy, Winter'!H2*1.2</f>
-        <v>59.153999999999996</v>
+        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.2</f>
+        <v>59.153999999999989</v>
       </c>
       <c r="I2" s="2">
-        <f>'Energy, Winter'!I2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.2</f>
         <v>61.908000000000001</v>
       </c>
       <c r="J2" s="2">
-        <f>'Energy, Winter'!J2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.2</f>
         <v>65.099999999999994</v>
       </c>
       <c r="K2" s="2">
-        <f>'Energy, Winter'!K2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.2</f>
         <v>64.60499999999999</v>
       </c>
       <c r="L2" s="2">
-        <f>'Energy, Winter'!L2*1.2</f>
-        <v>63.36</v>
+        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.2</f>
+        <v>63.360000000000014</v>
       </c>
       <c r="M2" s="2">
-        <f>'Energy, Winter'!M2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.2</f>
         <v>63.050999999999995</v>
       </c>
       <c r="N2" s="2">
-        <f>'Energy, Winter'!N2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.2</f>
         <v>60.608999999999988</v>
       </c>
       <c r="O2" s="2">
-        <f>'Energy, Winter'!O2*1.2</f>
-        <v>59.753999999999998</v>
+        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.2</f>
+        <v>59.753999999999991</v>
       </c>
       <c r="P2" s="2">
-        <f>'Energy, Winter'!P2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.2</f>
         <v>58.581000000000003</v>
       </c>
       <c r="Q2" s="2">
-        <f>'Energy, Winter'!Q2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.2</f>
         <v>58.697999999999993</v>
       </c>
       <c r="R2" s="2">
-        <f>'Energy, Winter'!R2*1.2</f>
-        <v>59.603999999999999</v>
+        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.2</f>
+        <v>59.603999999999992</v>
       </c>
       <c r="S2" s="2">
-        <f>'Energy, Winter'!S2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.2</f>
         <v>62.55</v>
       </c>
       <c r="T2" s="2">
-        <f>'Energy, Winter'!T2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.2</f>
         <v>65.543999999999997</v>
       </c>
       <c r="U2" s="2">
-        <f>'Energy, Winter'!U2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.2</f>
         <v>66.048000000000002</v>
       </c>
       <c r="V2" s="2">
-        <f>'Energy, Winter'!V2*1.2</f>
-        <v>64.523999999999987</v>
+        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.2</f>
+        <v>64.524000000000001</v>
       </c>
       <c r="W2" s="2">
-        <f>'Energy, Winter'!W2*1.2</f>
-        <v>60.470999999999997</v>
+        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.2</f>
+        <v>60.471000000000004</v>
       </c>
       <c r="X2" s="2">
-        <f>'Energy, Winter'!X2*1.2</f>
-        <v>54.579000000000001</v>
+        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.2</f>
+        <v>54.578999999999994</v>
       </c>
       <c r="Y2" s="2">
-        <f>'Energy, Winter'!Y2*1.2</f>
+        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.2</f>
         <v>51.227999999999994</v>
       </c>
     </row>
@@ -2924,100 +1788,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'Energy, Winter'!B3*1.2</f>
-        <v>48.984000000000002</v>
+        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.2</f>
+        <v>52.451999999999998</v>
       </c>
       <c r="C3" s="2">
-        <f>'Energy, Winter'!C3*1.2</f>
-        <v>46.235999999999997</v>
+        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.2</f>
+        <v>48.941999999999993</v>
       </c>
       <c r="D3" s="2">
-        <f>'Energy, Winter'!D3*1.2</f>
-        <v>43.241999999999997</v>
+        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.2</f>
+        <v>46.863</v>
       </c>
       <c r="E3" s="2">
-        <f>'Energy, Winter'!E3*1.2</f>
-        <v>41.309999999999995</v>
+        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.2</f>
+        <v>43.947000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f>'Energy, Winter'!F3*1.2</f>
-        <v>43.608000000000004</v>
+        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.2</f>
+        <v>45.258000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>'Energy, Winter'!G3*1.2</f>
-        <v>45.936</v>
+        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.2</f>
+        <v>48.894000000000005</v>
       </c>
       <c r="H3" s="2">
-        <f>'Energy, Winter'!H3*1.2</f>
-        <v>53.04</v>
+        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.2</f>
+        <v>59.153999999999989</v>
       </c>
       <c r="I3" s="2">
-        <f>'Energy, Winter'!I3*1.2</f>
-        <v>55.404000000000003</v>
+        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.2</f>
+        <v>61.908000000000001</v>
       </c>
       <c r="J3" s="2">
-        <f>'Energy, Winter'!J3*1.2</f>
-        <v>58.176000000000002</v>
+        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.2</f>
+        <v>65.099999999999994</v>
       </c>
       <c r="K3" s="2">
-        <f>'Energy, Winter'!K3*1.2</f>
-        <v>58.565999999999995</v>
+        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.2</f>
+        <v>64.60499999999999</v>
       </c>
       <c r="L3" s="2">
-        <f>'Energy, Winter'!L3*1.2</f>
-        <v>56.88</v>
+        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.2</f>
+        <v>63.360000000000014</v>
       </c>
       <c r="M3" s="2">
-        <f>'Energy, Winter'!M3*1.2</f>
-        <v>55.709999999999994</v>
+        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.2</f>
+        <v>63.050999999999995</v>
       </c>
       <c r="N3" s="2">
-        <f>'Energy, Winter'!N3*1.2</f>
-        <v>54.005999999999993</v>
+        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.2</f>
+        <v>60.608999999999988</v>
       </c>
       <c r="O3" s="2">
-        <f>'Energy, Winter'!O3*1.2</f>
-        <v>53.436</v>
+        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.2</f>
+        <v>59.753999999999991</v>
       </c>
       <c r="P3" s="2">
-        <f>'Energy, Winter'!P3*1.2</f>
-        <v>51.054000000000002</v>
+        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.2</f>
+        <v>58.581000000000003</v>
       </c>
       <c r="Q3" s="2">
-        <f>'Energy, Winter'!Q3*1.2</f>
-        <v>50.652000000000001</v>
+        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.2</f>
+        <v>58.697999999999993</v>
       </c>
       <c r="R3" s="2">
-        <f>'Energy, Winter'!R3*1.2</f>
-        <v>51.695999999999998</v>
+        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.2</f>
+        <v>59.603999999999992</v>
       </c>
       <c r="S3" s="2">
-        <f>'Energy, Winter'!S3*1.2</f>
-        <v>57</v>
+        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.2</f>
+        <v>62.55</v>
       </c>
       <c r="T3" s="2">
-        <f>'Energy, Winter'!T3*1.2</f>
-        <v>59.676000000000002</v>
+        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.2</f>
+        <v>65.543999999999997</v>
       </c>
       <c r="U3" s="2">
-        <f>'Energy, Winter'!U3*1.2</f>
-        <v>60.612000000000002</v>
+        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.2</f>
+        <v>66.048000000000002</v>
       </c>
       <c r="V3" s="2">
-        <f>'Energy, Winter'!V3*1.2</f>
-        <v>60.947999999999993</v>
+        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.2</f>
+        <v>64.524000000000001</v>
       </c>
       <c r="W3" s="2">
-        <f>'Energy, Winter'!W3*1.2</f>
-        <v>58.24199999999999</v>
+        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.2</f>
+        <v>60.471000000000004</v>
       </c>
       <c r="X3" s="2">
-        <f>'Energy, Winter'!X3*1.2</f>
-        <v>52.745999999999995</v>
+        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.2</f>
+        <v>54.578999999999994</v>
       </c>
       <c r="Y3" s="2">
-        <f>'Energy, Winter'!Y3*1.2</f>
-        <v>50.052</v>
+        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.2</f>
+        <v>51.227999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3025,100 +1889,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'Energy, Winter'!B4*1.2</f>
-        <v>55.92</v>
+        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.2</f>
+        <v>52.451999999999998</v>
       </c>
       <c r="C4" s="2">
-        <f>'Energy, Winter'!C4*1.2</f>
-        <v>51.647999999999996</v>
+        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.2</f>
+        <v>48.941999999999993</v>
       </c>
       <c r="D4" s="2">
-        <f>'Energy, Winter'!D4*1.2</f>
-        <v>50.484000000000002</v>
+        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.2</f>
+        <v>46.863</v>
       </c>
       <c r="E4" s="2">
-        <f>'Energy, Winter'!E4*1.2</f>
-        <v>46.583999999999996</v>
+        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.2</f>
+        <v>43.947000000000003</v>
       </c>
       <c r="F4" s="2">
-        <f>'Energy, Winter'!F4*1.2</f>
-        <v>46.908000000000001</v>
+        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.2</f>
+        <v>45.258000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f>'Energy, Winter'!G4*1.2</f>
-        <v>51.851999999999997</v>
+        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.2</f>
+        <v>48.894000000000005</v>
       </c>
       <c r="H4" s="2">
-        <f>'Energy, Winter'!H4*1.2</f>
-        <v>65.268000000000001</v>
+        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.2</f>
+        <v>59.153999999999989</v>
       </c>
       <c r="I4" s="2">
-        <f>'Energy, Winter'!I4*1.2</f>
-        <v>68.411999999999992</v>
+        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.2</f>
+        <v>61.908000000000001</v>
       </c>
       <c r="J4" s="2">
-        <f>'Energy, Winter'!J4*1.2</f>
-        <v>72.024000000000001</v>
+        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.2</f>
+        <v>65.099999999999994</v>
       </c>
       <c r="K4" s="2">
-        <f>'Energy, Winter'!K4*1.2</f>
-        <v>70.643999999999991</v>
+        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.2</f>
+        <v>64.60499999999999</v>
       </c>
       <c r="L4" s="2">
-        <f>'Energy, Winter'!L4*1.2</f>
-        <v>69.84</v>
+        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.2</f>
+        <v>63.360000000000014</v>
       </c>
       <c r="M4" s="2">
-        <f>'Energy, Winter'!M4*1.2</f>
-        <v>70.391999999999996</v>
+        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.2</f>
+        <v>63.050999999999995</v>
       </c>
       <c r="N4" s="2">
-        <f>'Energy, Winter'!N4*1.2</f>
-        <v>67.211999999999989</v>
+        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.2</f>
+        <v>60.608999999999988</v>
       </c>
       <c r="O4" s="2">
-        <f>'Energy, Winter'!O4*1.2</f>
-        <v>66.072000000000003</v>
+        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.2</f>
+        <v>59.753999999999991</v>
       </c>
       <c r="P4" s="2">
-        <f>'Energy, Winter'!P4*1.2</f>
-        <v>66.108000000000004</v>
+        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.2</f>
+        <v>58.581000000000003</v>
       </c>
       <c r="Q4" s="2">
-        <f>'Energy, Winter'!Q4*1.2</f>
-        <v>66.744</v>
+        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.2</f>
+        <v>58.697999999999993</v>
       </c>
       <c r="R4" s="2">
-        <f>'Energy, Winter'!R4*1.2</f>
-        <v>67.512</v>
+        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.2</f>
+        <v>59.603999999999992</v>
       </c>
       <c r="S4" s="2">
-        <f>'Energy, Winter'!S4*1.2</f>
-        <v>68.099999999999994</v>
+        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.2</f>
+        <v>62.55</v>
       </c>
       <c r="T4" s="2">
-        <f>'Energy, Winter'!T4*1.2</f>
-        <v>71.411999999999992</v>
+        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.2</f>
+        <v>65.543999999999997</v>
       </c>
       <c r="U4" s="2">
-        <f>'Energy, Winter'!U4*1.2</f>
-        <v>71.483999999999995</v>
+        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.2</f>
+        <v>66.048000000000002</v>
       </c>
       <c r="V4" s="2">
-        <f>'Energy, Winter'!V4*1.2</f>
-        <v>68.099999999999994</v>
+        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.2</f>
+        <v>64.524000000000001</v>
       </c>
       <c r="W4" s="2">
-        <f>'Energy, Winter'!W4*1.2</f>
-        <v>62.699999999999996</v>
+        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.2</f>
+        <v>60.471000000000004</v>
       </c>
       <c r="X4" s="2">
-        <f>'Energy, Winter'!X4*1.2</f>
-        <v>56.411999999999999</v>
+        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.2</f>
+        <v>54.578999999999994</v>
       </c>
       <c r="Y4" s="2">
-        <f>'Energy, Winter'!Y4*1.2</f>
-        <v>52.404000000000003</v>
+        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.2</f>
+        <v>51.227999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -4424,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1587CCD7-3E6A-436D-B3BD-ECCE65597EC5}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,100 +3376,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'Energy, Summer'!B2*1.2</f>
-        <v>44.724000000000004</v>
+        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.2</f>
+        <v>44.136000000000003</v>
       </c>
       <c r="C2" s="2">
-        <f>'Energy, Summer'!C2*1.2</f>
-        <v>40.811999999999998</v>
+        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.2</f>
+        <v>39.931999999999995</v>
       </c>
       <c r="D2" s="2">
-        <f>'Energy, Summer'!D2*1.2</f>
-        <v>39.083999999999996</v>
+        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.2</f>
+        <v>39.864000000000004</v>
       </c>
       <c r="E2" s="2">
-        <f>'Energy, Summer'!E2*1.2</f>
-        <v>38.375999999999998</v>
+        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.2</f>
+        <v>38.923999999999999</v>
       </c>
       <c r="F2" s="2">
-        <f>'Energy, Summer'!F2*1.2</f>
-        <v>38.556000000000004</v>
+        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.2</f>
+        <v>39.660000000000004</v>
       </c>
       <c r="G2" s="2">
-        <f>'Energy, Summer'!G2*1.2</f>
-        <v>43.643999999999998</v>
+        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.2</f>
+        <v>43.583999999999996</v>
       </c>
       <c r="H2" s="2">
-        <f>'Energy, Summer'!H2*1.2</f>
-        <v>45.491999999999997</v>
+        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.2</f>
+        <v>48.144000000000005</v>
       </c>
       <c r="I2" s="2">
-        <f>'Energy, Summer'!I2*1.2</f>
-        <v>45.491999999999997</v>
+        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.2</f>
+        <v>48.403999999999996</v>
       </c>
       <c r="J2" s="2">
-        <f>'Energy, Summer'!J2*1.2</f>
-        <v>47.808</v>
+        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.2</f>
+        <v>51.024000000000001</v>
       </c>
       <c r="K2" s="2">
-        <f>'Energy, Summer'!K2*1.2</f>
-        <v>47.927999999999997</v>
+        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.2</f>
+        <v>50.907999999999994</v>
       </c>
       <c r="L2" s="2">
-        <f>'Energy, Summer'!L2*1.2</f>
-        <v>47.808</v>
+        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.2</f>
+        <v>49.74</v>
       </c>
       <c r="M2" s="2">
-        <f>'Energy, Summer'!M2*1.2</f>
-        <v>48.011999999999993</v>
+        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.2</f>
+        <v>49.672000000000004</v>
       </c>
       <c r="N2" s="2">
-        <f>'Energy, Summer'!N2*1.2</f>
-        <v>47.327999999999996</v>
+        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.2</f>
+        <v>51.436</v>
       </c>
       <c r="O2" s="2">
-        <f>'Energy, Summer'!O2*1.2</f>
-        <v>47.027999999999999</v>
+        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.2</f>
+        <v>52.203999999999994</v>
       </c>
       <c r="P2" s="2">
-        <f>'Energy, Summer'!P2*1.2</f>
-        <v>46.043999999999997</v>
+        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.2</f>
+        <v>51.05599999999999</v>
       </c>
       <c r="Q2" s="2">
-        <f>'Energy, Summer'!Q2*1.2</f>
-        <v>44.627999999999993</v>
+        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.2</f>
+        <v>49.819999999999986</v>
       </c>
       <c r="R2" s="2">
-        <f>'Energy, Summer'!R2*1.2</f>
-        <v>41.975999999999992</v>
+        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.2</f>
+        <v>48.875999999999998</v>
       </c>
       <c r="S2" s="2">
-        <f>'Energy, Summer'!S2*1.2</f>
-        <v>44.843999999999994</v>
+        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.2</f>
+        <v>50.391999999999996</v>
       </c>
       <c r="T2" s="2">
-        <f>'Energy, Summer'!T2*1.2</f>
-        <v>46.559999999999995</v>
+        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.2</f>
+        <v>51.579999999999991</v>
       </c>
       <c r="U2" s="2">
-        <f>'Energy, Summer'!U2*1.2</f>
-        <v>47.879999999999995</v>
+        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.2</f>
+        <v>53.071999999999996</v>
       </c>
       <c r="V2" s="2">
-        <f>'Energy, Summer'!V2*1.2</f>
-        <v>46.847999999999999</v>
+        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.2</f>
+        <v>54.268000000000001</v>
       </c>
       <c r="W2" s="2">
-        <f>'Energy, Summer'!W2*1.2</f>
-        <v>47.808</v>
+        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.2</f>
+        <v>56.671999999999997</v>
       </c>
       <c r="X2" s="2">
-        <f>'Energy, Summer'!X2*1.2</f>
-        <v>47.711999999999996</v>
+        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.2</f>
+        <v>54.199999999999996</v>
       </c>
       <c r="Y2" s="2">
-        <f>'Energy, Summer'!Y2*1.2</f>
-        <v>45.768000000000001</v>
+        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.2</f>
+        <v>50.256</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4613,100 +3477,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'Energy, Summer'!B3*1.2</f>
-        <v>47.616</v>
+        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.2</f>
+        <v>44.136000000000003</v>
       </c>
       <c r="C3" s="2">
-        <f>'Energy, Summer'!C3*1.2</f>
-        <v>42</v>
+        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.2</f>
+        <v>39.931999999999995</v>
       </c>
       <c r="D3" s="2">
-        <f>'Energy, Summer'!D3*1.2</f>
-        <v>45.84</v>
+        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.2</f>
+        <v>39.864000000000004</v>
       </c>
       <c r="E3" s="2">
-        <f>'Energy, Summer'!E3*1.2</f>
-        <v>44.279999999999994</v>
+        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.2</f>
+        <v>38.923999999999999</v>
       </c>
       <c r="F3" s="2">
-        <f>'Energy, Summer'!F3*1.2</f>
-        <v>45.131999999999998</v>
+        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.2</f>
+        <v>39.660000000000004</v>
       </c>
       <c r="G3" s="2">
-        <f>'Energy, Summer'!G3*1.2</f>
-        <v>45.84</v>
+        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.2</f>
+        <v>43.583999999999996</v>
       </c>
       <c r="H3" s="2">
-        <f>'Energy, Summer'!H3*1.2</f>
-        <v>44.652000000000001</v>
+        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.2</f>
+        <v>48.144000000000005</v>
       </c>
       <c r="I3" s="2">
-        <f>'Energy, Summer'!I3*1.2</f>
-        <v>48.216000000000001</v>
+        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.2</f>
+        <v>48.403999999999996</v>
       </c>
       <c r="J3" s="2">
-        <f>'Energy, Summer'!J3*1.2</f>
-        <v>51.408000000000001</v>
+        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.2</f>
+        <v>51.024000000000001</v>
       </c>
       <c r="K3" s="2">
-        <f>'Energy, Summer'!K3*1.2</f>
-        <v>51.636000000000003</v>
+        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.2</f>
+        <v>50.907999999999994</v>
       </c>
       <c r="L3" s="2">
-        <f>'Energy, Summer'!L3*1.2</f>
-        <v>52.14</v>
+        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.2</f>
+        <v>49.74</v>
       </c>
       <c r="M3" s="2">
-        <f>'Energy, Summer'!M3*1.2</f>
-        <v>53.124000000000002</v>
+        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.2</f>
+        <v>49.672000000000004</v>
       </c>
       <c r="N3" s="2">
-        <f>'Energy, Summer'!N3*1.2</f>
-        <v>53.963999999999999</v>
+        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.2</f>
+        <v>51.436</v>
       </c>
       <c r="O3" s="2">
-        <f>'Energy, Summer'!O3*1.2</f>
-        <v>55.368000000000002</v>
+        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.2</f>
+        <v>52.203999999999994</v>
       </c>
       <c r="P3" s="2">
-        <f>'Energy, Summer'!P3*1.2</f>
-        <v>53.268000000000001</v>
+        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.2</f>
+        <v>51.05599999999999</v>
       </c>
       <c r="Q3" s="2">
-        <f>'Energy, Summer'!Q3*1.2</f>
-        <v>51.611999999999995</v>
+        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.2</f>
+        <v>49.819999999999986</v>
       </c>
       <c r="R3" s="2">
-        <f>'Energy, Summer'!R3*1.2</f>
-        <v>51.431999999999995</v>
+        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.2</f>
+        <v>48.875999999999998</v>
       </c>
       <c r="S3" s="2">
-        <f>'Energy, Summer'!S3*1.2</f>
-        <v>52.475999999999992</v>
+        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.2</f>
+        <v>50.391999999999996</v>
       </c>
       <c r="T3" s="2">
-        <f>'Energy, Summer'!T3*1.2</f>
-        <v>52.763999999999996</v>
+        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.2</f>
+        <v>51.579999999999991</v>
       </c>
       <c r="U3" s="2">
-        <f>'Energy, Summer'!U3*1.2</f>
-        <v>53.879999999999995</v>
+        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.2</f>
+        <v>53.071999999999996</v>
       </c>
       <c r="V3" s="2">
-        <f>'Energy, Summer'!V3*1.2</f>
-        <v>54.54</v>
+        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.2</f>
+        <v>54.268000000000001</v>
       </c>
       <c r="W3" s="2">
-        <f>'Energy, Summer'!W3*1.2</f>
-        <v>55.379999999999995</v>
+        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.2</f>
+        <v>56.671999999999997</v>
       </c>
       <c r="X3" s="2">
-        <f>'Energy, Summer'!X3*1.2</f>
-        <v>53.963999999999999</v>
+        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.2</f>
+        <v>54.199999999999996</v>
       </c>
       <c r="Y3" s="2">
-        <f>'Energy, Summer'!Y3*1.2</f>
-        <v>51</v>
+        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.2</f>
+        <v>50.256</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4714,100 +3578,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'Energy, Summer'!B4*1.2</f>
-        <v>40.067999999999998</v>
+        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.2</f>
+        <v>44.136000000000003</v>
       </c>
       <c r="C4" s="2">
-        <f>'Energy, Summer'!C4*1.2</f>
-        <v>36.984000000000002</v>
+        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.2</f>
+        <v>39.931999999999995</v>
       </c>
       <c r="D4" s="2">
-        <f>'Energy, Summer'!D4*1.2</f>
-        <v>34.667999999999999</v>
+        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.2</f>
+        <v>39.864000000000004</v>
       </c>
       <c r="E4" s="2">
-        <f>'Energy, Summer'!E4*1.2</f>
-        <v>34.116</v>
+        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.2</f>
+        <v>38.923999999999999</v>
       </c>
       <c r="F4" s="2">
-        <f>'Energy, Summer'!F4*1.2</f>
-        <v>35.292000000000002</v>
+        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.2</f>
+        <v>39.660000000000004</v>
       </c>
       <c r="G4" s="2">
-        <f>'Energy, Summer'!G4*1.2</f>
-        <v>41.268000000000001</v>
+        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.2</f>
+        <v>43.583999999999996</v>
       </c>
       <c r="H4" s="2">
-        <f>'Energy, Summer'!H4*1.2</f>
-        <v>54.288000000000004</v>
+        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.2</f>
+        <v>48.144000000000005</v>
       </c>
       <c r="I4" s="2">
-        <f>'Energy, Summer'!I4*1.2</f>
-        <v>51.503999999999998</v>
+        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.2</f>
+        <v>48.403999999999996</v>
       </c>
       <c r="J4" s="2">
-        <f>'Energy, Summer'!J4*1.2</f>
-        <v>53.856000000000002</v>
+        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.2</f>
+        <v>51.024000000000001</v>
       </c>
       <c r="K4" s="2">
-        <f>'Energy, Summer'!K4*1.2</f>
-        <v>53.16</v>
+        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.2</f>
+        <v>50.907999999999994</v>
       </c>
       <c r="L4" s="2">
-        <f>'Energy, Summer'!L4*1.2</f>
-        <v>49.271999999999998</v>
+        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.2</f>
+        <v>49.74</v>
       </c>
       <c r="M4" s="2">
-        <f>'Energy, Summer'!M4*1.2</f>
-        <v>47.879999999999995</v>
+        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.2</f>
+        <v>49.672000000000004</v>
       </c>
       <c r="N4" s="2">
-        <f>'Energy, Summer'!N4*1.2</f>
-        <v>53.015999999999998</v>
+        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.2</f>
+        <v>51.436</v>
       </c>
       <c r="O4" s="2">
-        <f>'Energy, Summer'!O4*1.2</f>
-        <v>54.216000000000001</v>
+        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.2</f>
+        <v>52.203999999999994</v>
       </c>
       <c r="P4" s="2">
-        <f>'Energy, Summer'!P4*1.2</f>
-        <v>53.856000000000002</v>
+        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.2</f>
+        <v>51.05599999999999</v>
       </c>
       <c r="Q4" s="2">
-        <f>'Energy, Summer'!Q4*1.2</f>
-        <v>53.22</v>
+        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.2</f>
+        <v>49.819999999999986</v>
       </c>
       <c r="R4" s="2">
-        <f>'Energy, Summer'!R4*1.2</f>
-        <v>53.22</v>
+        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.2</f>
+        <v>48.875999999999998</v>
       </c>
       <c r="S4" s="2">
-        <f>'Energy, Summer'!S4*1.2</f>
-        <v>53.856000000000002</v>
+        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.2</f>
+        <v>50.391999999999996</v>
       </c>
       <c r="T4" s="2">
-        <f>'Energy, Summer'!T4*1.2</f>
-        <v>55.415999999999997</v>
+        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.2</f>
+        <v>51.579999999999991</v>
       </c>
       <c r="U4" s="2">
-        <f>'Energy, Summer'!U4*1.2</f>
-        <v>57.456000000000003</v>
+        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.2</f>
+        <v>53.071999999999996</v>
       </c>
       <c r="V4" s="2">
-        <f>'Energy, Summer'!V4*1.2</f>
-        <v>61.415999999999997</v>
+        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.2</f>
+        <v>54.268000000000001</v>
       </c>
       <c r="W4" s="2">
-        <f>'Energy, Summer'!W4*1.2</f>
-        <v>66.827999999999989</v>
+        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.2</f>
+        <v>56.671999999999997</v>
       </c>
       <c r="X4" s="2">
-        <f>'Energy, Summer'!X4*1.2</f>
-        <v>60.923999999999999</v>
+        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.2</f>
+        <v>54.199999999999996</v>
       </c>
       <c r="Y4" s="2">
-        <f>'Energy, Summer'!Y4*1.2</f>
-        <v>54</v>
+        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.2</f>
+        <v>50.256</v>
       </c>
     </row>
   </sheetData>
